--- a/demo.xlsx
+++ b/demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wei\Downloads\Pareidolia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CABE1B18-F594-43F2-8981-3F28413279C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE6AB1E5-DD8B-4C8F-9A64-59FEBB14E8AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>stimuli</t>
   </si>
@@ -60,24 +60,12 @@
     <t>images/demo (10).png</t>
   </si>
   <si>
-    <t>images/demo (11).png</t>
-  </si>
-  <si>
-    <t>images/demo (12).png</t>
-  </si>
-  <si>
-    <t>images/demo (13).png</t>
-  </si>
-  <si>
     <t>images/demo (15).png</t>
   </si>
   <si>
     <t>images/demo (16).png</t>
   </si>
   <si>
-    <t>images/demo (14).png</t>
-  </si>
-  <si>
     <t>images/demo (17).png</t>
   </si>
   <si>
@@ -91,6 +79,27 @@
   </si>
   <si>
     <t>demo_face</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>images/demo (21).jpg</t>
+  </si>
+  <si>
+    <t>images/demo (20).jpg</t>
+  </si>
+  <si>
+    <t>images/demo (11).jpg</t>
+  </si>
+  <si>
+    <t>images/demo (12).jpg</t>
+  </si>
+  <si>
+    <t>images/demo (13).jpg</t>
+  </si>
+  <si>
+    <t>images/demo (14).jpg</t>
   </si>
 </sst>
 </file>
@@ -408,20 +417,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="19.81640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -429,7 +441,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -437,7 +449,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -445,7 +457,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -453,7 +465,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -461,7 +473,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -469,7 +481,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -477,7 +489,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -485,7 +497,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -493,7 +505,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -501,79 +513,95 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>20</v>
+      <c r="B22" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
